--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/fc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,23 +473,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quais eventos históricos acentuaram a necessidade de uma nova Convenção sobre o direito do mar, segundo o preâmbulo da CNUDM?</t>
+          <t>Para os efeitos da Convenção, qual é a definição jurídica de "Área"?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Os fatos ocorridos desde as Conferências das Nações Unidas sobre o Direito do Mar realizadas em Genebra em 1958 e 1960.</t>
+          <t>Significa o leito do mar, os fundos marinhos e o seu subsolo além dos limites da jurisdição nacional, conforme o Artigo 1, parágrafo 1, item 1.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
     </row>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>De que maneira a Convenção considera a relação entre os problemas do espaço oceânico?</t>
+          <t>Quais elementos caracterizam a "poluição do meio marinho" segundo o Artigo 1?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Considera que estão estreitamente inter-relacionados e devem ser considerados como um todo.</t>
+          <t>É a introdução pelo homem de substâncias ou energia que provoque efeitos nocivos, como danos à vida marinha, riscos à saúde ou entrave às atividades legítimas, conforme o Artigo 1, parágrafo 1, item 4.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
     </row>
@@ -529,107 +529,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o status jurídico dos fundos marinhos e oceânicos além da jurisdição nacional, conforme reafirmado pela Convenção com base na Resolução 2749 (XXV)?</t>
+          <t>O lançamento de detritos resultantes da operação normal de uma embarcação é considerado "alijamento"?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>São patrimônio comum da humanidade.</t>
+          <t>Não, o termo exclui detritos derivados da exploração normal, exceto se transportados especificamente para lançamento, conforme o Artigo 1, parágrafo 1, item 5, alínea b.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág. 2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Como devem ser regidas as matérias que não foram reguladas expressamente pela presente Convenção?</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Continuarão a ser regidas pelas normas e princípios do direito internacional geral.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Para efeitos da Convenção, qual é a definição de "Área"?</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Significa o leito do mar, os fundos marinhos e o seu subsolo além dos limites da jurisdição nacional.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Parte I</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>O lançamento de detritos resultantes da exploração normal de uma embarcação é considerado "alijamento" (dumping) nos termos da Convenção?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Não, o termo exclui o lançamento de detritos derivados da exploração normal de embarcações, aeronaves e plataformas.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pág 2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Parte I</t>
+          <t>Parte I - Introdução</t>
         </is>
       </c>
     </row>
